--- a/komoditas.xlsx
+++ b/komoditas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021\Desktop\Susenas2021-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sosial 6307\Downloads\Susenas2022Maret-main\Susenas2022Maret-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936BBCAB-F16C-4A08-AE9E-FB7C19339F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BC42D-0FFA-4CDE-B2B4-3EA1EC2F8936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Oncom</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -863,19 +866,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M132"/>
+      <selection activeCell="N2" sqref="N2:N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="8" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,26 +897,29 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>138</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>139</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -932,34 +938,37 @@
       <c r="F2">
         <v>12000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
         <v>8900</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>20000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>MIN(D2:F2)</f>
         <v>12000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>MAX(D2:F2)</f>
         <v>12000</v>
       </c>
-      <c r="K2">
-        <f>I2-G2</f>
+      <c r="L2">
+        <f>J2-H2</f>
         <v>3100</v>
       </c>
-      <c r="L2">
-        <f>H2-J2</f>
+      <c r="M2">
+        <f>I2-K2</f>
         <v>8000</v>
       </c>
-      <c r="M2" t="str">
-        <f>CONCATENATE("{id:",A2,", nama:'",B2,"', satuan:'",C2,"', harga1:",D2,", harga2:",E2,", harga3:",F2,"},")</f>
-        <v>{id:3, nama:'Beras ketan', satuan:'Kg', harga1:12000, harga2:12000, harga3:12000},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="str">
+        <f>CONCATENATE("{id:",A2,", nama:'",B2,"', satuan:'",C2,"', harga1:",D2,", harga2:",E2,", harga3:",F2,",fixed:",G2,"},")</f>
+        <v>{id:3, nama:'Beras ketan', satuan:'Kg', harga1:12000, harga2:12000, harga3:12000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -978,34 +987,37 @@
       <c r="F3">
         <v>6000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
         <v>3000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>8000</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I69" si="0">MIN(D3:F3)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J69" si="0">MIN(D3:F3)</f>
         <v>6000</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J69" si="1">MAX(D3:F3)</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K69" si="1">MAX(D3:F3)</f>
         <v>6000</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K69" si="2">I3-G3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L69" si="2">J3-H3</f>
         <v>3000</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L69" si="3">H3-J3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M69" si="3">I3-K3</f>
         <v>2000</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="4">CONCATENATE("{id:",A3,", nama:'",B3,"', satuan:'",C3,"', harga1:",D3,", harga2:",E3,", harga3:",F3,"},")</f>
-        <v>{id:4, nama:'Jagung basah dengan kulit', satuan:'Kg', harga1:6000, harga2:6000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="4">CONCATENATE("{id:",A3,", nama:'",B3,"', satuan:'",C3,"', harga1:",D3,", harga2:",E3,", harga3:",F3,",fixed:",G3,"},")</f>
+        <v>{id:4, nama:'Jagung basah dengan kulit', satuan:'Kg', harga1:6000, harga2:6000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1024,34 +1036,37 @@
       <c r="F4">
         <v>10000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
         <v>3000</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>25000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="M4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="4"/>
-        <v>{id:5, nama:'Jagung pipilan/beras jagung/jagung titi', satuan:'Kg', harga1:8000, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:5, nama:'Jagung pipilan/beras jagung/jagung titi', satuan:'Kg', harga1:8000, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1070,34 +1085,37 @@
       <c r="F5">
         <v>15000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
         <v>6000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>14000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>-1000</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="4"/>
-        <v>{id:6, nama:'Tepung terigu', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:6, nama:'Tepung terigu', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1116,34 +1134,37 @@
       <c r="F6">
         <v>6000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
         <v>2000</v>
       </c>
-      <c r="H6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I6">
+      <c r="I6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="M6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="4"/>
-        <v>{id:9, nama:'Ketela pohon/singkong', satuan:'Kg', harga1:2000, harga2:4000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:9, nama:'Ketela pohon/singkong', satuan:'Kg', harga1:2000, harga2:4000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1162,34 +1183,37 @@
       <c r="F7">
         <v>6000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <v>2000</v>
       </c>
-      <c r="H7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="M7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="4"/>
-        <v>{id:10, nama:'Ketela rambat/ubi jalar', satuan:'Kg', harga1:3000, harga2:5000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:10, nama:'Ketela rambat/ubi jalar', satuan:'Kg', harga1:3000, harga2:5000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1208,34 +1232,37 @@
       <c r="F8">
         <v>8000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
         <v>4000</v>
       </c>
-      <c r="H8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="4"/>
-        <v>{id:11, nama:'Sagu (bukan dari ketela pohon)', satuan:'Kg', harga1:5000, harga2:6000, harga3:8000},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:11, nama:'Sagu (bukan dari ketela pohon)', satuan:'Kg', harga1:5000, harga2:6000, harga3:8000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1254,34 +1281,37 @@
       <c r="F9">
         <v>5000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
         <v>2000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>13000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>8000</v>
       </c>
-      <c r="M9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="4"/>
-        <v>{id:12, nama:'Talas/keladi', satuan:'Kg', harga1:2000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:12, nama:'Talas/keladi', satuan:'Kg', harga1:2000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1300,34 +1330,37 @@
       <c r="F10">
         <v>25000</v>
       </c>
-      <c r="G10" s="2">
-        <v>10000</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="2">
         <v>40000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
-        <v>{id:13, nama:'Kentang', satuan:'Kg', harga1:15000, harga2:20000, harga3:25000},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:13, nama:'Kentang', satuan:'Kg', harga1:15000, harga2:20000, harga3:25000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1346,34 +1379,37 @@
       <c r="F11">
         <v>6000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
         <v>1500</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>28000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>22000</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
-        <v>{id:14, nama:'Gaplek', satuan:'Kg', harga1:4000, harga2:5000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:14, nama:'Gaplek', satuan:'Kg', harga1:4000, harga2:5000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1392,34 +1428,37 @@
       <c r="F12">
         <v>50000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <v>25000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>85900</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>35900</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
-        <v>{id:17, nama:'Ekor kuning', satuan:'Kg', harga1:25000, harga2:40000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:17, nama:'Ekor kuning', satuan:'Kg', harga1:25000, harga2:40000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1438,34 +1477,37 @@
       <c r="F13">
         <v>50000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
         <v>20000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>80000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="M13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
-        <v>{id:18, nama:'Tongkol', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:18, nama:'Tongkol', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1484,20 +1526,23 @@
       <c r="F14">
         <v>120000</v>
       </c>
-      <c r="I14">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
-        <v>{id:19, nama:'Tuna', satuan:'Kg', harga1:75000, harga2:80000, harga3:120000},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:19, nama:'Tuna', satuan:'Kg', harga1:75000, harga2:80000, harga3:120000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1516,12 +1561,15 @@
       <c r="F15">
         <v>50000</v>
       </c>
-      <c r="M15" t="str">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="4"/>
-        <v>{id:20, nama:'Cakalang, dencis', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:20, nama:'Cakalang, dencis', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1540,34 +1588,37 @@
       <c r="F16">
         <v>60000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
         <v>15000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>60000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="4"/>
-        <v>{id:21, nama:'Tenggiri', satuan:'Kg', harga1:40000, harga2:50000, harga3:60000},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:21, nama:'Tenggiri', satuan:'Kg', harga1:40000, harga2:50000, harga3:60000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1586,34 +1637,37 @@
       <c r="F17">
         <v>40000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
         <v>15000</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>50000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M17" t="str">
+      <c r="N17" t="str">
         <f t="shared" si="4"/>
-        <v>{id:22, nama:'Selar', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:22, nama:'Selar', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1632,34 +1686,37 @@
       <c r="F18">
         <v>50000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
         <v>15000</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>50000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" t="str">
+      <c r="N18" t="str">
         <f t="shared" si="4"/>
-        <v>{id:23, nama:'Kembung, lema/tatare, banyar/banyara', satuan:'Kg', harga1:35000, harga2:40000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:23, nama:'Kembung, lema/tatare, banyar/banyara', satuan:'Kg', harga1:35000, harga2:40000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1678,34 +1735,37 @@
       <c r="F19">
         <v>80000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
         <v>15000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>100000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>45000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M19" t="str">
+      <c r="N19" t="str">
         <f t="shared" si="4"/>
-        <v>{id:24, nama:'Teri Basah', satuan:'Kg', harga1:60000, harga2:75000, harga3:80000},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:24, nama:'Teri Basah', satuan:'Kg', harga1:60000, harga2:75000, harga3:80000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1724,34 +1784,37 @@
       <c r="F20">
         <v>40000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2">
         <v>20000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>60000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <f t="shared" si="4"/>
-        <v>{id:25, nama:'Bandeng', satuan:'Kg', harga1:20000, harga2:25000, harga3:40000},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:25, nama:'Bandeng', satuan:'Kg', harga1:20000, harga2:25000, harga3:40000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1770,34 +1833,37 @@
       <c r="F21">
         <v>75000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
         <v>15000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>120000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>75000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="3"/>
         <v>45000</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <f t="shared" si="4"/>
-        <v>{id:26, nama:'Gabus', satuan:'Kg', harga1:38000, harga2:65000, harga3:75000},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:26, nama:'Gabus', satuan:'Kg', harga1:38000, harga2:65000, harga3:75000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -1816,34 +1882,37 @@
       <c r="F22">
         <v>45000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
         <v>25000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>100000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="3"/>
         <v>55000</v>
       </c>
-      <c r="M22" t="str">
+      <c r="N22" t="str">
         <f t="shared" si="4"/>
-        <v>{id:27, nama:'Mujair', satuan:'Kg', harga1:35000, harga2:40000, harga3:45000},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:27, nama:'Mujair', satuan:'Kg', harga1:35000, harga2:40000, harga3:45000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>28</v>
       </c>
@@ -1862,34 +1931,37 @@
       <c r="F23">
         <v>45000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
         <v>23000</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>60000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="3"/>
         <v>15000</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <f t="shared" si="4"/>
-        <v>{id:28, nama:'Mas', satuan:'Kg', harga1:25000, harga2:30000, harga3:45000},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:28, nama:'Mas', satuan:'Kg', harga1:25000, harga2:30000, harga3:45000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>29</v>
       </c>
@@ -1908,20 +1980,23 @@
       <c r="F24">
         <v>50000</v>
       </c>
-      <c r="I24">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="M24" t="str">
+      <c r="N24" t="str">
         <f t="shared" si="4"/>
-        <v>{id:29, nama:'Nila', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:29, nama:'Nila', satuan:'Kg', harga1:30000, harga2:35000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>30</v>
       </c>
@@ -1940,34 +2015,37 @@
       <c r="F25">
         <v>45000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
         <v>15000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>50000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M25" t="str">
+      <c r="N25" t="str">
         <f t="shared" si="4"/>
-        <v>{id:30, nama:'Lele', satuan:'Kg', harga1:35000, harga2:40000, harga3:45000},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:30, nama:'Lele', satuan:'Kg', harga1:35000, harga2:40000, harga3:45000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -1986,34 +2064,37 @@
       <c r="F26">
         <v>80000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
         <v>20000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>100000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M26" t="str">
+      <c r="N26" t="str">
         <f t="shared" si="4"/>
-        <v>{id:31, nama:'Kakap', satuan:'Kg', harga1:60000, harga2:75000, harga3:80000},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:31, nama:'Kakap', satuan:'Kg', harga1:60000, harga2:75000, harga3:80000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>32</v>
       </c>
@@ -2032,34 +2113,37 @@
       <c r="F27">
         <v>50000</v>
       </c>
-      <c r="G27" s="2">
-        <v>10000</v>
+      <c r="G27">
+        <v>2</v>
       </c>
       <c r="H27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I27" s="2">
         <v>85000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="3"/>
         <v>35000</v>
       </c>
-      <c r="M27" t="str">
+      <c r="N27" t="str">
         <f t="shared" si="4"/>
-        <v>{id:32, nama:'Baronang', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:32, nama:'Baronang', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>33</v>
       </c>
@@ -2078,34 +2162,37 @@
       <c r="F28">
         <v>45000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
         <v>15000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>70000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>45000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="3"/>
         <v>25000</v>
       </c>
-      <c r="M28" t="str">
+      <c r="N28" t="str">
         <f t="shared" si="4"/>
-        <v>{id:33, nama:'Patin', satuan:'Kg', harga1:20000, harga2:25000, harga3:45000},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:33, nama:'Patin', satuan:'Kg', harga1:20000, harga2:25000, harga3:45000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>34</v>
       </c>
@@ -2124,34 +2211,37 @@
       <c r="F29">
         <v>60000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
         <v>20000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>70000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <f t="shared" si="4"/>
-        <v>{id:34, nama:'Bawal', satuan:'Kg', harga1:45000, harga2:50000, harga3:60000},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:34, nama:'Bawal', satuan:'Kg', harga1:45000, harga2:50000, harga3:60000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -2170,34 +2260,37 @@
       <c r="F30">
         <v>60000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
         <v>30000</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>70000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="4"/>
-        <v>{id:35, nama:'Gurame', satuan:'Kg', harga1:45000, harga2:50000, harga3:60000},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:35, nama:'Gurame', satuan:'Kg', harga1:45000, harga2:50000, harga3:60000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -2216,34 +2309,37 @@
       <c r="F31">
         <v>60000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
         <v>20000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>180000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="4"/>
-        <v>{id:37, nama:'Udang, lobster', satuan:'Kg', harga1:40000, harga2:45000, harga3:60000},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:37, nama:'Udang, lobster', satuan:'Kg', harga1:40000, harga2:45000, harga3:60000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -2262,34 +2358,37 @@
       <c r="F32">
         <v>80000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2">
         <v>30000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>80000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <f t="shared" si="4"/>
-        <v>{id:38, nama:'Cumi-cumi, sotong, gurita', satuan:'Kg', harga1:60000, harga2:70000, harga3:80000},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:38, nama:'Cumi-cumi, sotong, gurita', satuan:'Kg', harga1:60000, harga2:70000, harga3:80000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2308,34 +2407,37 @@
       <c r="F33">
         <v>50000</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
         <v>20000</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>60000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M33" t="str">
+      <c r="N33" t="str">
         <f t="shared" si="4"/>
-        <v>{id:39, nama:'Ketam, kepiting, rajungan', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:39, nama:'Ketam, kepiting, rajungan', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -2354,34 +2456,37 @@
       <c r="F34">
         <v>30000</v>
       </c>
-      <c r="G34" s="2">
-        <v>10000</v>
+      <c r="G34">
+        <v>2</v>
       </c>
       <c r="H34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I34" s="2">
         <v>80000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="M34" t="str">
+      <c r="N34" t="str">
         <f t="shared" si="4"/>
-        <v>{id:40, nama:'Kerang, siput, bekicot, remis', satuan:'Kg', harga1:20000, harga2:25000, harga3:30000},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:40, nama:'Kerang, siput, bekicot, remis', satuan:'Kg', harga1:20000, harga2:25000, harga3:30000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>42</v>
       </c>
@@ -2400,34 +2505,37 @@
       <c r="F35">
         <v>8000</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
         <v>2000</v>
       </c>
-      <c r="H35" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I35">
+      <c r="I35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M35" t="str">
+      <c r="N35" t="str">
         <f t="shared" si="4"/>
-        <v>{id:42, nama:'Kembung diawetkan/peda', satuan:'Ons', harga1:5000, harga2:6000, harga3:8000},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:42, nama:'Kembung diawetkan/peda', satuan:'Ons', harga1:5000, harga2:6000, harga3:8000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43</v>
       </c>
@@ -2446,34 +2554,37 @@
       <c r="F36">
         <v>15000</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
         <v>2000</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>15000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <f t="shared" si="4"/>
-        <v>{id:43, nama:'Tenggiri diawetkan', satuan:'Ons', harga1:10000, harga2:12000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:43, nama:'Tenggiri diawetkan', satuan:'Ons', harga1:10000, harga2:12000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>44</v>
       </c>
@@ -2492,34 +2603,37 @@
       <c r="F37">
         <v>10000</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2">
         <v>3000</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>12000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M37" t="str">
+      <c r="N37" t="str">
         <f t="shared" si="4"/>
-        <v>{id:44, nama:'Tongkol/tuna/cakalang diawetkan', satuan:'Ons', harga1:8000, harga2:8500, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:44, nama:'Tongkol/tuna/cakalang diawetkan', satuan:'Ons', harga1:8000, harga2:8500, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>45</v>
       </c>
@@ -2538,34 +2652,37 @@
       <c r="F38">
         <v>8000</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
         <v>2000</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>8000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <f t="shared" si="4"/>
-        <v>{id:45, nama:'Teri diawetkan', satuan:'Ons', harga1:7000, harga2:7500, harga3:8000},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:45, nama:'Teri diawetkan', satuan:'Ons', harga1:7000, harga2:7500, harga3:8000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>46</v>
       </c>
@@ -2584,34 +2701,37 @@
       <c r="F39">
         <v>5000</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" s="2">
         <v>2000</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>7000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <f t="shared" si="4"/>
-        <v>{id:46, nama:'Selar diawetkan', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:46, nama:'Selar diawetkan', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>47</v>
       </c>
@@ -2630,34 +2750,37 @@
       <c r="F40">
         <v>7000</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" s="2">
         <v>2500</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>12000</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M40" t="str">
+      <c r="N40" t="str">
         <f t="shared" si="4"/>
-        <v>{id:47, nama:'Sepat diawetkan', satuan:'Ons', harga1:4000, harga2:5000, harga3:7000},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:47, nama:'Sepat diawetkan', satuan:'Ons', harga1:4000, harga2:5000, harga3:7000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>48</v>
       </c>
@@ -2676,34 +2799,37 @@
       <c r="F41">
         <v>5000</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="2">
         <v>2000</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>7000</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <f t="shared" si="4"/>
-        <v>{id:48, nama:'Bandeng diawetkan', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:48, nama:'Bandeng diawetkan', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>49</v>
       </c>
@@ -2722,34 +2848,37 @@
       <c r="F42">
         <v>13000</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2">
         <v>4000</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>17000</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="M42" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="4"/>
-        <v>{id:49, nama:'Gabus diawetkan', satuan:'Ons', harga1:7000, harga2:8500, harga3:13000},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:49, nama:'Gabus diawetkan', satuan:'Ons', harga1:7000, harga2:8500, harga3:13000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -2768,34 +2897,37 @@
       <c r="F43">
         <v>5500</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
         <v>1000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>12000</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f t="shared" si="3"/>
         <v>6500</v>
       </c>
-      <c r="M43" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="4"/>
-        <v>{id:50, nama:'Ikan dalam kaleng (sardencis, tuna dalam kaleng, dsb)', satuan:'Ons', harga1:5000, harga2:5100, harga3:5500},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:50, nama:'Ikan dalam kaleng (sardencis, tuna dalam kaleng, dsb)', satuan:'Ons', harga1:5000, harga2:5100, harga3:5500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>52</v>
       </c>
@@ -2814,34 +2946,37 @@
       <c r="F44">
         <v>5500</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2">
         <v>1800</v>
       </c>
-      <c r="H44" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I44">
+      <c r="I44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="M44" t="str">
+      <c r="N44" t="str">
         <f t="shared" si="4"/>
-        <v>{id:52, nama:'Udang diawetkan (ebi, rebon)', satuan:'Ons', harga1:4500, harga2:5000, harga3:5500},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:52, nama:'Udang diawetkan (ebi, rebon)', satuan:'Ons', harga1:4500, harga2:5000, harga3:5500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>53</v>
       </c>
@@ -2860,34 +2995,37 @@
       <c r="F45">
         <v>10000</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
         <v>2000</v>
       </c>
-      <c r="H45" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I45">
+      <c r="I45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" t="str">
+      <c r="N45" t="str">
         <f t="shared" si="4"/>
-        <v>{id:53, nama:'Cumi-cumi, sotong, gurita diawetkan', satuan:'Ons', harga1:8000, harga2:10000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:53, nama:'Cumi-cumi, sotong, gurita diawetkan', satuan:'Ons', harga1:8000, harga2:10000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56</v>
       </c>
@@ -2906,34 +3044,37 @@
       <c r="F46">
         <v>130000</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
         <v>110000</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>160000</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f t="shared" si="1"/>
         <v>130000</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="M46" t="str">
+      <c r="N46" t="str">
         <f t="shared" si="4"/>
-        <v>{id:56, nama:'Daging sapi', satuan:'Kg', harga1:110000, harga2:120000, harga3:130000},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:56, nama:'Daging sapi', satuan:'Kg', harga1:110000, harga2:120000, harga3:130000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57</v>
       </c>
@@ -2952,34 +3093,37 @@
       <c r="F47">
         <v>100000</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
         <v>90000</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>130000</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <f t="shared" si="3"/>
         <v>30000</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <f t="shared" si="4"/>
-        <v>{id:57, nama:'Daging kambing, domba/biri-biri', satuan:'Kg', harga1:90000, harga2:90000, harga3:100000},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:57, nama:'Daging kambing, domba/biri-biri', satuan:'Kg', harga1:90000, harga2:90000, harga3:100000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>59</v>
       </c>
@@ -2998,34 +3142,37 @@
       <c r="F48">
         <v>40000</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
         <v>18000</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>60000</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <f t="shared" si="4"/>
-        <v>{id:59, nama:'Daging ayam ras', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:59, nama:'Daging ayam ras', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>60</v>
       </c>
@@ -3044,34 +3191,37 @@
       <c r="F49">
         <v>50000</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
         <v>20000</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>70000</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="M49" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="4"/>
-        <v>{id:60, nama:'Daging ayam kampung', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:60, nama:'Daging ayam kampung', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>63</v>
       </c>
@@ -3090,34 +3240,37 @@
       <c r="F50">
         <v>50000</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2">
         <v>45000</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>105000</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <f t="shared" si="3"/>
         <v>55000</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="4"/>
-        <v>{id:63, nama:'Tetelan, sandung lamur', satuan:'Kg', harga1:45000, harga2:45000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:63, nama:'Tetelan, sandung lamur', satuan:'Kg', harga1:45000, harga2:45000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>64</v>
       </c>
@@ -3136,34 +3289,37 @@
       <c r="F51">
         <v>50000</v>
       </c>
-      <c r="G51" s="2">
-        <v>10000</v>
+      <c r="G51">
+        <v>2</v>
       </c>
       <c r="H51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I51" s="2">
         <v>150000</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="M51" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="4"/>
-        <v>{id:64, nama:'Lainnya (hati, jeroan, iga, kaki, buntut, kepala, dsb)', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:64, nama:'Lainnya (hati, jeroan, iga, kaki, buntut, kepala, dsb)', satuan:'Kg', harga1:40000, harga2:45000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>66</v>
       </c>
@@ -3182,34 +3338,37 @@
       <c r="F52">
         <v>2000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>1200</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>2500</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="M52" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="4"/>
-        <v>{id:66, nama:'Telur ayam ras', satuan:'Butir', harga1:1200, harga2:1500, harga3:2000},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:66, nama:'Telur ayam ras', satuan:'Butir', harga1:1200, harga2:1500, harga3:2000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>67</v>
       </c>
@@ -3228,34 +3387,37 @@
       <c r="F53">
         <v>3000</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
         <v>1300</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>4000</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M53" t="str">
+      <c r="N53" t="str">
         <f t="shared" si="4"/>
-        <v>{id:67, nama:'Telur ayam kampung', satuan:'Butir', harga1:2000, harga2:2500, harga3:3000},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:67, nama:'Telur ayam kampung', satuan:'Butir', harga1:2000, harga2:2500, harga3:3000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>68</v>
       </c>
@@ -3274,34 +3436,37 @@
       <c r="F54">
         <v>3000</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
         <v>1500</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>4000</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="M54" t="str">
+      <c r="N54" t="str">
         <f t="shared" si="4"/>
-        <v>{id:68, nama:'Telur itik/telur itik manila', satuan:'Butir', harga1:2300, harga2:2500, harga3:3000},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:68, nama:'Telur itik/telur itik manila', satuan:'Butir', harga1:2300, harga2:2500, harga3:3000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>70</v>
       </c>
@@ -3320,34 +3485,37 @@
       <c r="F55">
         <v>5000</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
         <v>1000</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>12000</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="M55" t="str">
+      <c r="N55" t="str">
         <f t="shared" si="4"/>
-        <v>{id:70, nama:'Susu cair pabrik', satuan:'Kotak kecil (250ml)', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:70, nama:'Susu cair pabrik', satuan:'Kotak kecil (250ml)', harga1:3000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>71</v>
       </c>
@@ -3366,34 +3534,37 @@
       <c r="F56">
         <v>12000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2">
         <v>6000</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>15000</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <f t="shared" si="4"/>
-        <v>{id:71, nama:'Susu kental manis', satuan:'Kaleng (397gr)', harga1:9000, harga2:11000, harga3:12000},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:71, nama:'Susu kental manis', satuan:'Kaleng (397gr)', harga1:9000, harga2:11000, harga3:12000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>72</v>
       </c>
@@ -3412,34 +3583,37 @@
       <c r="F57">
         <v>100000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
         <v>30000</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>160000</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <f t="shared" si="3"/>
         <v>60000</v>
       </c>
-      <c r="M57" t="str">
+      <c r="N57" t="str">
         <f t="shared" si="4"/>
-        <v>{id:72, nama:'Susu bubuk', satuan:'Kg', harga1:70000, harga2:80000, harga3:100000},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:72, nama:'Susu bubuk', satuan:'Kg', harga1:70000, harga2:80000, harga3:100000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>73</v>
       </c>
@@ -3458,34 +3632,37 @@
       <c r="F58">
         <v>145000</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" s="2">
         <v>60000</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>200000</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="1"/>
         <v>145000</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <f t="shared" si="3"/>
         <v>55000</v>
       </c>
-      <c r="M58" t="str">
+      <c r="N58" t="str">
         <f t="shared" si="4"/>
-        <v>{id:73, nama:'Susu bubuk bayi', satuan:'Kg', harga1:110000, harga2:130000, harga3:145000},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:73, nama:'Susu bubuk bayi', satuan:'Kg', harga1:110000, harga2:130000, harga3:145000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>76</v>
       </c>
@@ -3504,34 +3681,37 @@
       <c r="F59">
         <v>12000</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="2">
         <v>1000</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>25000</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
-      <c r="M59" t="str">
+      <c r="N59" t="str">
         <f t="shared" si="4"/>
-        <v>{id:76, nama:'Bayam', satuan:'Kg', harga1:8000, harga2:10000, harga3:12000},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:76, nama:'Bayam', satuan:'Kg', harga1:8000, harga2:10000, harga3:12000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>77</v>
       </c>
@@ -3550,34 +3730,37 @@
       <c r="F60">
         <v>7500</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" s="2">
         <v>1000</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>15000</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" t="str">
+      <c r="N60" t="str">
         <f t="shared" si="4"/>
-        <v>{id:77, nama:'Kangkung', satuan:'Kg', harga1:3000, harga2:5000, harga3:7500},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:77, nama:'Kangkung', satuan:'Kg', harga1:3000, harga2:5000, harga3:7500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>78</v>
       </c>
@@ -3596,34 +3779,37 @@
       <c r="F61">
         <v>15000</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" s="2">
         <v>4000</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>25000</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M61" t="str">
+      <c r="N61" t="str">
         <f t="shared" si="4"/>
-        <v>{id:78, nama:'Kol/kubis', satuan:'Kg', harga1:10000, harga2:12000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:78, nama:'Kol/kubis', satuan:'Kg', harga1:10000, harga2:12000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>79</v>
       </c>
@@ -3642,34 +3828,37 @@
       <c r="F62">
         <v>17500</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="2">
         <v>3000</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>25000</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M62" t="str">
+      <c r="N62" t="str">
         <f t="shared" si="4"/>
-        <v>{id:79, nama:'Sawi putih (petsai)', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:79, nama:'Sawi putih (petsai)', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>80</v>
       </c>
@@ -3688,34 +3877,37 @@
       <c r="F63">
         <v>17500</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="2">
         <v>2000</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>20000</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="M63" t="str">
+      <c r="N63" t="str">
         <f t="shared" si="4"/>
-        <v>{id:80, nama:'Sawi hijau', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:80, nama:'Sawi hijau', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>81</v>
       </c>
@@ -3734,34 +3926,37 @@
       <c r="F64">
         <v>15000</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2">
         <v>2000</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>18000</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="M64" t="str">
+      <c r="N64" t="str">
         <f t="shared" si="4"/>
-        <v>{id:81, nama:'Buncis', satuan:'Kg', harga1:6000, harga2:10000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:81, nama:'Buncis', satuan:'Kg', harga1:6000, harga2:10000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>82</v>
       </c>
@@ -3780,34 +3975,37 @@
       <c r="F65">
         <v>10000</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" s="2">
         <v>2000</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>15000</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="M65" t="str">
+      <c r="N65" t="str">
         <f t="shared" si="4"/>
-        <v>{id:82, nama:'Kacang panjang', satuan:'Kg', harga1:6000, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:82, nama:'Kacang panjang', satuan:'Kg', harga1:6000, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>83</v>
       </c>
@@ -3826,34 +4024,37 @@
       <c r="F66">
         <v>17500</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" s="2">
         <v>1000</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>20000</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="1"/>
         <v>17500</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <f t="shared" si="3"/>
         <v>2500</v>
       </c>
-      <c r="M66" t="str">
+      <c r="N66" t="str">
         <f t="shared" si="4"/>
-        <v>{id:83, nama:'Tomat sayur, tomat ceri', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:83, nama:'Tomat sayur, tomat ceri', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>84</v>
       </c>
@@ -3872,34 +4073,37 @@
       <c r="F67">
         <v>25000</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="2">
         <v>4000</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>35000</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="5">CONCATENATE("{id:",A67,", nama:'",B67,"', satuan:'",C67,"', harga1:",D67,", harga2:",E67,", harga3:",F67,"},")</f>
-        <v>{id:84, nama:'Wortel', satuan:'Kg', harga1:15000, harga2:18000, harga3:25000},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="5">CONCATENATE("{id:",A67,", nama:'",B67,"', satuan:'",C67,"', harga1:",D67,", harga2:",E67,", harga3:",F67,",fixed:",G67,"},")</f>
+        <v>{id:84, nama:'Wortel', satuan:'Kg', harga1:15000, harga2:18000, harga3:25000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>85</v>
       </c>
@@ -3918,34 +4122,37 @@
       <c r="F68">
         <v>10000</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" s="2">
         <v>1000</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>20000</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="M68" t="str">
+      <c r="N68" t="str">
         <f t="shared" si="5"/>
-        <v>{id:85, nama:'Mentimun', satuan:'Kg', harga1:5000, harga2:10000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:85, nama:'Mentimun', satuan:'Kg', harga1:5000, harga2:10000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>86</v>
       </c>
@@ -3964,34 +4171,37 @@
       <c r="F69">
         <v>5000</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
         <v>1000</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>8000</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <f t="shared" si="3"/>
         <v>3000</v>
       </c>
-      <c r="M69" t="str">
+      <c r="N69" t="str">
         <f t="shared" si="5"/>
-        <v>{id:86, nama:'Daun ketela pohon/daun singkong', satuan:'Kg', harga1:2000, harga2:2500, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:86, nama:'Daun ketela pohon/daun singkong', satuan:'Kg', harga1:2000, harga2:2500, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>87</v>
       </c>
@@ -4010,34 +4220,37 @@
       <c r="F70">
         <v>20000</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" s="2">
         <v>2000</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>12000</v>
       </c>
-      <c r="I70">
-        <f t="shared" ref="I70:I132" si="6">MIN(D70:F70)</f>
-        <v>10000</v>
-      </c>
       <c r="J70">
-        <f t="shared" ref="J70:J132" si="7">MAX(D70:F70)</f>
+        <f t="shared" ref="J70:J132" si="6">MIN(D70:F70)</f>
+        <v>10000</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70:K132" si="7">MAX(D70:F70)</f>
         <v>20000</v>
       </c>
-      <c r="K70">
-        <f t="shared" ref="K70:K132" si="8">I70-G70</f>
+      <c r="L70">
+        <f t="shared" ref="L70:L132" si="8">J70-H70</f>
         <v>8000</v>
       </c>
-      <c r="L70">
-        <f t="shared" ref="L70:L132" si="9">H70-J70</f>
+      <c r="M70">
+        <f t="shared" ref="M70:M132" si="9">I70-K70</f>
         <v>-8000</v>
       </c>
-      <c r="M70" t="str">
+      <c r="N70" t="str">
         <f t="shared" si="5"/>
-        <v>{id:87, nama:'Terong', satuan:'Kg', harga1:10000, harga2:15000, harga3:20000},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:87, nama:'Terong', satuan:'Kg', harga1:10000, harga2:15000, harga3:20000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>88</v>
       </c>
@@ -4056,34 +4269,37 @@
       <c r="F71">
         <v>25000</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" s="2">
         <v>2000</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>30000</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <f t="shared" si="8"/>
         <v>13000</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="M71" t="str">
+      <c r="N71" t="str">
         <f t="shared" si="5"/>
-        <v>{id:88, nama:'Tauge', satuan:'Kg', harga1:15000, harga2:20000, harga3:25000},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:88, nama:'Tauge', satuan:'Kg', harga1:15000, harga2:20000, harga3:25000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>89</v>
       </c>
@@ -4102,34 +4318,37 @@
       <c r="F72">
         <v>15000</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" s="2">
         <v>1000</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>20000</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="M72" t="str">
+      <c r="N72" t="str">
         <f t="shared" si="5"/>
-        <v>{id:89, nama:'Labu, labu siam, labu parang', satuan:'Kg', harga1:10000, harga2:12000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:89, nama:'Labu, labu siam, labu parang', satuan:'Kg', harga1:10000, harga2:12000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90</v>
       </c>
@@ -4148,34 +4367,37 @@
       <c r="F73">
         <v>5000</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
         <v>1000</v>
       </c>
-      <c r="H73" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I73">
+      <c r="I73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="M73" t="str">
+      <c r="N73" t="str">
         <f t="shared" si="5"/>
-        <v>{id:90, nama:'Bahan sayur sop/capcay/ kimlo (paket)', satuan:'Bungkus', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:90, nama:'Bahan sayur sop/capcay/ kimlo (paket)', satuan:'Bungkus', harga1:3000, harga2:4000, harga3:5000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>91</v>
       </c>
@@ -4194,34 +4416,37 @@
       <c r="F74">
         <v>5000</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
         <v>1000</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>6000</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="M74" t="str">
+      <c r="N74" t="str">
         <f t="shared" si="5"/>
-        <v>{id:91, nama:'Bahan sayur asam/lodeh (paket)', satuan:'Bungkus', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:91, nama:'Bahan sayur asam/lodeh (paket)', satuan:'Bungkus', harga1:3000, harga2:4000, harga3:5000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>92</v>
       </c>
@@ -4240,34 +4465,37 @@
       <c r="F75">
         <v>7000</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" s="2">
         <v>1000</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>9000</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f t="shared" si="7"/>
         <v>7000</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="M75" t="str">
+      <c r="N75" t="str">
         <f t="shared" si="5"/>
-        <v>{id:92, nama:'Nangka muda', satuan:'Kg', harga1:5000, harga2:5000, harga3:7000},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:92, nama:'Nangka muda', satuan:'Kg', harga1:5000, harga2:5000, harga3:7000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>93</v>
       </c>
@@ -4286,34 +4514,37 @@
       <c r="F76">
         <v>5000</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" s="2">
         <v>500</v>
       </c>
-      <c r="H76" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I76">
+      <c r="I76" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="M76" t="str">
+      <c r="N76" t="str">
         <f t="shared" si="5"/>
-        <v>{id:93, nama:'Pepaya muda', satuan:'Kg', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:93, nama:'Pepaya muda', satuan:'Kg', harga1:3000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>94</v>
       </c>
@@ -4332,34 +4563,37 @@
       <c r="F77">
         <v>15000</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" s="2">
         <v>4000</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="2">
         <v>35000</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="M77" t="str">
+      <c r="N77" t="str">
         <f t="shared" si="5"/>
-        <v>{id:94, nama:'Jengkol', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:94, nama:'Jengkol', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>95</v>
       </c>
@@ -4378,34 +4612,37 @@
       <c r="F78">
         <v>5000</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78" s="2">
         <v>2000</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="2">
         <v>8000</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <f t="shared" si="9"/>
         <v>3000</v>
       </c>
-      <c r="M78" t="str">
+      <c r="N78" t="str">
         <f t="shared" si="5"/>
-        <v>{id:95, nama:'Bawang merah', satuan:'Ons', harga1:3000, harga2:3800, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:95, nama:'Bawang merah', satuan:'Ons', harga1:3000, harga2:3800, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>96</v>
       </c>
@@ -4424,20 +4661,23 @@
       <c r="F79">
         <v>5000</v>
       </c>
-      <c r="I79">
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="M79" t="str">
+      <c r="N79" t="str">
         <f t="shared" si="5"/>
-        <v>{id:96, nama:'Bawang Bombay', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:96, nama:'Bawang Bombay', satuan:'Ons', harga1:3000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>97</v>
       </c>
@@ -4456,34 +4696,37 @@
       <c r="F80">
         <v>3500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" s="2">
         <v>2000</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>8000</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <f t="shared" si="7"/>
         <v>3500</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <f t="shared" si="9"/>
         <v>4500</v>
       </c>
-      <c r="M80" t="str">
+      <c r="N80" t="str">
         <f t="shared" si="5"/>
-        <v>{id:97, nama:'Bawang putih', satuan:'Ons', harga1:2000, harga2:2500, harga3:3500},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:97, nama:'Bawang putih', satuan:'Ons', harga1:2000, harga2:2500, harga3:3500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>98</v>
       </c>
@@ -4502,34 +4745,37 @@
       <c r="F81">
         <v>120000</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" s="2">
         <v>12000</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>70000</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <f t="shared" si="7"/>
         <v>120000</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <f t="shared" si="8"/>
         <v>68000</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <f t="shared" si="9"/>
         <v>-50000</v>
       </c>
-      <c r="M81" t="str">
+      <c r="N81" t="str">
         <f t="shared" si="5"/>
-        <v>{id:98, nama:'Cabe merah', satuan:'Kg', harga1:80000, harga2:120000, harga3:120000},</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:98, nama:'Cabe merah', satuan:'Kg', harga1:80000, harga2:120000, harga3:120000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>99</v>
       </c>
@@ -4548,34 +4794,37 @@
       <c r="F82">
         <v>50000</v>
       </c>
-      <c r="G82" s="2">
-        <v>5000</v>
+      <c r="G82">
+        <v>2</v>
       </c>
       <c r="H82" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I82" s="2">
         <v>60000</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <f t="shared" si="6"/>
         <v>45000</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <f t="shared" si="8"/>
         <v>40000</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="M82" t="str">
+      <c r="N82" t="str">
         <f t="shared" si="5"/>
-        <v>{id:99, nama:'Cabe hijau', satuan:'Kg', harga1:45000, harga2:50000, harga3:50000},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:99, nama:'Cabe hijau', satuan:'Kg', harga1:45000, harga2:50000, harga3:50000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>100</v>
       </c>
@@ -4594,34 +4843,37 @@
       <c r="F83">
         <v>120000</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2">
         <v>20000</v>
       </c>
-      <c r="H83" s="2">
+      <c r="I83" s="2">
         <v>120000</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <f t="shared" si="7"/>
         <v>120000</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <f t="shared" si="8"/>
         <v>80000</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M83" t="str">
+      <c r="N83" t="str">
         <f t="shared" si="5"/>
-        <v>{id:100, nama:'Cabe rawit', satuan:'Kg', harga1:100000, harga2:110000, harga3:120000},</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:100, nama:'Cabe rawit', satuan:'Kg', harga1:100000, harga2:110000, harga3:120000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>103</v>
       </c>
@@ -4640,34 +4892,37 @@
       <c r="F84">
         <v>35000</v>
       </c>
-      <c r="G84" s="2">
-        <v>10000</v>
+      <c r="G84">
+        <v>2</v>
       </c>
       <c r="H84" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I84" s="2">
         <v>40000</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <f t="shared" si="7"/>
         <v>35000</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <f t="shared" si="8"/>
         <v>15000</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <f t="shared" si="9"/>
         <v>5000</v>
       </c>
-      <c r="M84" t="str">
+      <c r="N84" t="str">
         <f t="shared" si="5"/>
-        <v>{id:103, nama:'Kacang tanah tanpa kulit', satuan:'Kg', harga1:25000, harga2:32000, harga3:35000},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:103, nama:'Kacang tanah tanpa kulit', satuan:'Kg', harga1:25000, harga2:32000, harga3:35000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>104</v>
       </c>
@@ -4686,34 +4941,37 @@
       <c r="F85">
         <v>10000</v>
       </c>
-      <c r="G85" s="2">
-        <v>5000</v>
+      <c r="G85">
+        <v>2</v>
       </c>
       <c r="H85" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I85" s="2">
         <v>48000</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <f t="shared" si="6"/>
         <v>7500</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <f t="shared" si="9"/>
         <v>38000</v>
       </c>
-      <c r="M85" t="str">
+      <c r="N85" t="str">
         <f t="shared" si="5"/>
-        <v>{id:104, nama:'Kacang kedelai', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:104, nama:'Kacang kedelai', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>106</v>
       </c>
@@ -4732,34 +4990,37 @@
       <c r="F86">
         <v>10000</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2">
         <v>4000</v>
       </c>
-      <c r="H86" s="2">
+      <c r="I86" s="2">
         <v>20000</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <f t="shared" si="6"/>
         <v>7500</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="M86" t="str">
+      <c r="N86" t="str">
         <f t="shared" si="5"/>
-        <v>{id:106, nama:'Tahu', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:106, nama:'Tahu', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>107</v>
       </c>
@@ -4778,34 +5039,37 @@
       <c r="F87">
         <v>10000</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" s="2">
         <v>4000</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I87" s="2">
         <v>20000</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <f t="shared" si="6"/>
         <v>7500</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="M87" t="str">
+      <c r="N87" t="str">
         <f t="shared" si="5"/>
-        <v>{id:107, nama:'Tempe', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:107, nama:'Tempe', satuan:'Kg', harga1:7500, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>108</v>
       </c>
@@ -4824,20 +5088,23 @@
       <c r="F88">
         <v>1000</v>
       </c>
-      <c r="I88">
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="6"/>
         <v>750</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="M88" t="str">
+      <c r="N88" t="str">
         <f t="shared" si="5"/>
-        <v>{id:108, nama:'Oncom', satuan:'Ons', harga1:750, harga2:800, harga3:1000},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:108, nama:'Oncom', satuan:'Ons', harga1:750, harga2:800, harga3:1000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>111</v>
       </c>
@@ -4856,34 +5123,37 @@
       <c r="F89">
         <v>25000</v>
       </c>
-      <c r="G89" s="2">
-        <v>5000</v>
+      <c r="G89">
+        <v>2</v>
       </c>
       <c r="H89" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I89" s="2">
         <v>125000</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <f t="shared" si="8"/>
         <v>5000</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <f t="shared" si="9"/>
         <v>100000</v>
       </c>
-      <c r="M89" t="str">
+      <c r="N89" t="str">
         <f t="shared" si="5"/>
-        <v>{id:111, nama:'Jeruk, jeruk bali', satuan:'Kg', harga1:10000, harga2:18000, harga3:25000},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:111, nama:'Jeruk, jeruk bali', satuan:'Kg', harga1:10000, harga2:18000, harga3:25000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>112</v>
       </c>
@@ -4902,34 +5172,37 @@
       <c r="F90">
         <v>30000</v>
       </c>
-      <c r="G90" s="2">
-        <v>10000</v>
+      <c r="G90">
+        <v>2</v>
       </c>
       <c r="H90" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I90" s="2">
         <v>50000</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <f t="shared" si="8"/>
         <v>5000</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="M90" t="str">
+      <c r="N90" t="str">
         <f t="shared" si="5"/>
-        <v>{id:112, nama:'Mangga', satuan:'Kg', harga1:15000, harga2:25000, harga3:30000},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:112, nama:'Mangga', satuan:'Kg', harga1:15000, harga2:25000, harga3:30000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>113</v>
       </c>
@@ -4948,34 +5221,37 @@
       <c r="F91">
         <v>40000</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91" s="2">
         <v>15000</v>
       </c>
-      <c r="H91" s="2">
+      <c r="I91" s="2">
         <v>65000</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <f t="shared" si="8"/>
         <v>10000</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <f t="shared" si="9"/>
         <v>25000</v>
       </c>
-      <c r="M91" t="str">
+      <c r="N91" t="str">
         <f t="shared" si="5"/>
-        <v>{id:113, nama:'Apel', satuan:'Kg', harga1:25000, harga2:35000, harga3:40000},</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:113, nama:'Apel', satuan:'Kg', harga1:25000, harga2:35000, harga3:40000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>114</v>
       </c>
@@ -4994,34 +5270,37 @@
       <c r="F92">
         <v>15000</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92" s="2">
         <v>1000</v>
       </c>
-      <c r="H92" s="2">
+      <c r="I92" s="2">
         <v>40000</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <f t="shared" si="9"/>
         <v>25000</v>
       </c>
-      <c r="M92" t="str">
+      <c r="N92" t="str">
         <f t="shared" si="5"/>
-        <v>{id:114, nama:'Rambutan', satuan:'Kg', harga1:5000, harga2:10000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:114, nama:'Rambutan', satuan:'Kg', harga1:5000, harga2:10000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>115</v>
       </c>
@@ -5040,34 +5319,37 @@
       <c r="F93">
         <v>40000</v>
       </c>
-      <c r="G93" s="2">
-        <v>5000</v>
+      <c r="G93">
+        <v>2</v>
       </c>
       <c r="H93" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I93" s="2">
         <v>65000</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <f t="shared" si="6"/>
         <v>25000</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <f t="shared" si="9"/>
         <v>25000</v>
       </c>
-      <c r="M93" t="str">
+      <c r="N93" t="str">
         <f t="shared" si="5"/>
-        <v>{id:115, nama:'Duku, langsat', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000},</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:115, nama:'Duku, langsat', satuan:'Kg', harga1:25000, harga2:30000, harga3:40000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>116</v>
       </c>
@@ -5086,34 +5368,37 @@
       <c r="F94">
         <v>30000</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2">
         <v>15000</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I94" s="2">
         <v>125000</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <f t="shared" si="9"/>
         <v>95000</v>
       </c>
-      <c r="M94" t="str">
+      <c r="N94" t="str">
         <f t="shared" si="5"/>
-        <v>{id:116, nama:'Durian', satuan:'Kg', harga1:15000, harga2:20000, harga3:30000},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:116, nama:'Durian', satuan:'Kg', harga1:15000, harga2:20000, harga3:30000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>117</v>
       </c>
@@ -5132,34 +5417,37 @@
       <c r="F95">
         <v>12000</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2">
         <v>4000</v>
       </c>
-      <c r="H95" s="2">
+      <c r="I95" s="2">
         <v>25000</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <f t="shared" si="6"/>
         <v>7000</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <f t="shared" si="7"/>
         <v>12000</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <f t="shared" si="9"/>
         <v>13000</v>
       </c>
-      <c r="M95" t="str">
+      <c r="N95" t="str">
         <f t="shared" si="5"/>
-        <v>{id:117, nama:'Salak', satuan:'Kg', harga1:7000, harga2:8000, harga3:12000},</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:117, nama:'Salak', satuan:'Kg', harga1:7000, harga2:8000, harga3:12000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>118</v>
       </c>
@@ -5178,34 +5466,37 @@
       <c r="F96">
         <v>6000</v>
       </c>
-      <c r="G96" s="2">
-        <v>5000</v>
+      <c r="G96">
+        <v>2</v>
       </c>
       <c r="H96" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I96" s="2">
         <v>20000</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <f t="shared" si="9"/>
         <v>14000</v>
       </c>
-      <c r="M96" t="str">
+      <c r="N96" t="str">
         <f t="shared" si="5"/>
-        <v>{id:118, nama:'Pisang ambon', satuan:'Kg', harga1:5000, harga2:5000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:118, nama:'Pisang ambon', satuan:'Kg', harga1:5000, harga2:5000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>119</v>
       </c>
@@ -5224,34 +5515,37 @@
       <c r="F97">
         <v>10000</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2">
         <v>3000</v>
       </c>
-      <c r="H97" s="2">
+      <c r="I97" s="2">
         <v>30000</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <f t="shared" si="8"/>
         <v>3000</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <f t="shared" si="9"/>
         <v>20000</v>
       </c>
-      <c r="M97" t="str">
+      <c r="N97" t="str">
         <f t="shared" si="5"/>
-        <v>{id:119, nama:'Pisang lainnya', satuan:'Kg', harga1:6000, harga2:8000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:119, nama:'Pisang lainnya', satuan:'Kg', harga1:6000, harga2:8000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>120</v>
       </c>
@@ -5270,34 +5564,37 @@
       <c r="F98">
         <v>10000</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98" s="2">
         <v>1500</v>
       </c>
-      <c r="H98" s="2">
+      <c r="I98" s="2">
         <v>20000</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="M98" t="str">
+      <c r="N98" t="str">
         <f t="shared" si="5"/>
-        <v>{id:120, nama:'Pepaya', satuan:'Kg', harga1:5000, harga2:10000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:120, nama:'Pepaya', satuan:'Kg', harga1:5000, harga2:10000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>121</v>
       </c>
@@ -5316,34 +5613,37 @@
       <c r="F99">
         <v>15000</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2">
         <v>2000</v>
       </c>
-      <c r="H99" s="2">
+      <c r="I99" s="2">
         <v>16000</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <f t="shared" si="7"/>
         <v>15000</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <f t="shared" si="8"/>
         <v>6000</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="M99" t="str">
+      <c r="N99" t="str">
         <f t="shared" si="5"/>
-        <v>{id:121, nama:'Semangka', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000},</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:121, nama:'Semangka', satuan:'Kg', harga1:8000, harga2:10000, harga3:15000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>122</v>
       </c>
@@ -5362,12 +5662,15 @@
       <c r="F100">
         <v>17500</v>
       </c>
-      <c r="M100" t="str">
+      <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="N100" t="str">
         <f t="shared" si="5"/>
-        <v>{id:122, nama:'Tomat Buah', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500},</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:122, nama:'Tomat Buah', satuan:'Kg', harga1:10000, harga2:15000, harga3:17500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>123</v>
       </c>
@@ -5386,12 +5689,15 @@
       <c r="F101">
         <v>35000</v>
       </c>
-      <c r="M101" t="str">
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="N101" t="str">
         <f t="shared" si="5"/>
-        <v>{id:123, nama:'Alpukat', satuan:'Kg', harga1:25000, harga2:30000, harga3:35000},</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:123, nama:'Alpukat', satuan:'Kg', harga1:25000, harga2:30000, harga3:35000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>124</v>
       </c>
@@ -5410,12 +5716,15 @@
       <c r="F102">
         <v>30000</v>
       </c>
-      <c r="M102" t="str">
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="N102" t="str">
         <f t="shared" si="5"/>
-        <v>{id:124, nama:'Jambu Biji', satuan:'Kg', harga1:20000, harga2:25000, harga3:30000},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:124, nama:'Jambu Biji', satuan:'Kg', harga1:20000, harga2:25000, harga3:30000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>127</v>
       </c>
@@ -5434,34 +5743,37 @@
       <c r="F103">
         <v>30000</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103" s="2">
         <v>7000</v>
       </c>
-      <c r="H103" s="2">
+      <c r="I103" s="2">
         <v>30000</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M103" t="str">
+      <c r="N103" t="str">
         <f t="shared" si="5"/>
-        <v>{id:127, nama:'Minyak kelapa', satuan:'Liter', harga1:15000, harga2:25000, harga3:30000},</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:127, nama:'Minyak kelapa', satuan:'Liter', harga1:15000, harga2:25000, harga3:30000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>128</v>
       </c>
@@ -5480,34 +5792,37 @@
       <c r="F104">
         <v>20000</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104" s="2">
         <v>7000</v>
       </c>
-      <c r="H104" s="2">
+      <c r="I104" s="2">
         <v>20000</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M104" t="str">
+      <c r="N104" t="str">
         <f t="shared" si="5"/>
-        <v>{id:128, nama:'Minyak goreng (kelapa sawit, bunga matahari)', satuan:'Liter', harga1:15000, harga2:17000, harga3:20000},</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:128, nama:'Minyak goreng (kelapa sawit, bunga matahari)', satuan:'Liter', harga1:15000, harga2:17000, harga3:20000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>129</v>
       </c>
@@ -5526,34 +5841,37 @@
       <c r="F105">
         <v>6000</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="H105" s="2">
         <v>2000</v>
       </c>
-      <c r="H105" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I105">
+      <c r="I105" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-      <c r="M105" t="str">
+      <c r="N105" t="str">
         <f t="shared" si="5"/>
-        <v>{id:129, nama:'Kelapa (tidak termasuk santan instan)', satuan:'Butir', harga1:3000, harga2:4000, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:129, nama:'Kelapa (tidak termasuk santan instan)', satuan:'Butir', harga1:3000, harga2:4000, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>132</v>
       </c>
@@ -5572,34 +5890,37 @@
       <c r="F106">
         <v>1600</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106" s="2">
         <v>1100</v>
       </c>
-      <c r="H106" s="2">
+      <c r="I106" s="2">
         <v>2000</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <f t="shared" si="6"/>
         <v>1400</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <f t="shared" si="7"/>
         <v>1600</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="M106" t="str">
+      <c r="N106" t="str">
         <f t="shared" si="5"/>
-        <v>{id:132, nama:'Gula pasir', satuan:'Ons', harga1:1400, harga2:1500, harga3:1600},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:132, nama:'Gula pasir', satuan:'Ons', harga1:1400, harga2:1500, harga3:1600,fixed:2},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>133</v>
       </c>
@@ -5618,34 +5939,37 @@
       <c r="F107">
         <v>2000</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107" s="2">
         <v>1000</v>
       </c>
-      <c r="H107" s="2">
+      <c r="I107" s="2">
         <v>3000</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <f t="shared" si="6"/>
         <v>1600</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="M107" t="str">
+      <c r="N107" t="str">
         <f t="shared" si="5"/>
-        <v>{id:133, nama:'Gula merah, gula air (pohon aren, kelapa, lontar)', satuan:'Ons', harga1:1600, harga2:1700, harga3:2000},</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:133, nama:'Gula merah, gula air (pohon aren, kelapa, lontar)', satuan:'Ons', harga1:1600, harga2:1700, harga3:2000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>134</v>
       </c>
@@ -5664,34 +5988,37 @@
       <c r="F108">
         <v>6000</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="H108" s="2">
         <v>500</v>
       </c>
-      <c r="H108" s="2">
+      <c r="I108" s="2">
         <v>7500</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <f t="shared" si="6"/>
         <v>4500</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <f t="shared" si="9"/>
         <v>1500</v>
       </c>
-      <c r="M108" t="str">
+      <c r="N108" t="str">
         <f t="shared" si="5"/>
-        <v>{id:134, nama:'Teh bubuk', satuan:'Ons', harga1:4500, harga2:4500, harga3:6000},</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:134, nama:'Teh bubuk', satuan:'Ons', harga1:4500, harga2:4500, harga3:6000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>135</v>
       </c>
@@ -5710,34 +6037,37 @@
       <c r="F109">
         <v>300</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109" s="2">
         <v>100</v>
       </c>
-      <c r="H109" s="2">
+      <c r="I109" s="2">
         <v>500</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="M109" t="str">
+      <c r="N109" t="str">
         <f t="shared" si="5"/>
-        <v>{id:135, nama:'Teh celup (sachet)', satuan:'2 gram', harga1:200, harga2:200, harga3:300},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:135, nama:'Teh celup (sachet)', satuan:'2 gram', harga1:200, harga2:200, harga3:300,fixed:2},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>136</v>
       </c>
@@ -5756,34 +6086,37 @@
       <c r="F110">
         <v>4000</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110" s="2">
         <v>500</v>
       </c>
-      <c r="H110" s="2">
+      <c r="I110" s="2">
         <v>6000</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <f t="shared" si="8"/>
         <v>1500</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="M110" t="str">
+      <c r="N110" t="str">
         <f t="shared" si="5"/>
-        <v>{id:136, nama:'Kopi (bubuk, biji)', satuan:'Ons', harga1:2000, harga2:2500, harga3:4000},</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:136, nama:'Kopi (bubuk, biji)', satuan:'Ons', harga1:2000, harga2:2500, harga3:4000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>137</v>
       </c>
@@ -5802,34 +6135,37 @@
       <c r="F111">
         <v>2500</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111" s="2">
         <v>750</v>
       </c>
-      <c r="H111" s="2">
+      <c r="I111" s="2">
         <v>2500</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <f t="shared" si="8"/>
         <v>750</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M111" t="str">
+      <c r="N111" t="str">
         <f t="shared" si="5"/>
-        <v>{id:137, nama:'Kopi instan (sachet)', satuan:'20 gram', harga1:1500, harga2:1500, harga3:2500},</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:137, nama:'Kopi instan (sachet)', satuan:'20 gram', harga1:1500, harga2:1500, harga3:2500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>140</v>
       </c>
@@ -5848,34 +6184,37 @@
       <c r="F112">
         <v>15</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
         <v>5</v>
       </c>
-      <c r="H112" s="2">
+      <c r="I112" s="2">
         <v>50</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="M112" t="str">
+      <c r="N112" t="str">
         <f t="shared" si="5"/>
-        <v>{id:140, nama:'Garam', satuan:'Gram', harga1:8, harga2:12, harga3:15},</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:140, nama:'Garam', satuan:'Gram', harga1:8, harga2:12, harga3:15,fixed:0},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>141</v>
       </c>
@@ -5894,34 +6233,37 @@
       <c r="F113">
         <v>60</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
         <v>30</v>
       </c>
-      <c r="H113" s="2">
+      <c r="I113" s="2">
         <v>90</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="M113" t="str">
+      <c r="N113" t="str">
         <f t="shared" si="5"/>
-        <v>{id:141, nama:'Kemiri', satuan:'Gram', harga1:40, harga2:50, harga3:60},</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:141, nama:'Kemiri', satuan:'Gram', harga1:40, harga2:50, harga3:60,fixed:0},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>142</v>
       </c>
@@ -5940,34 +6282,37 @@
       <c r="F114">
         <v>60</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
         <v>30</v>
       </c>
-      <c r="H114" s="2">
+      <c r="I114" s="2">
         <v>80</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="M114" t="str">
+      <c r="N114" t="str">
         <f t="shared" si="5"/>
-        <v>{id:142, nama:'Ketumbar/jinten', satuan:'Gram', harga1:40, harga2:50, harga3:60},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:142, nama:'Ketumbar/jinten', satuan:'Gram', harga1:40, harga2:50, harga3:60,fixed:0},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>143</v>
       </c>
@@ -5986,34 +6331,37 @@
       <c r="F115">
         <v>200</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
         <v>60</v>
       </c>
-      <c r="H115" s="2">
+      <c r="I115" s="2">
         <v>200</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <f t="shared" si="6"/>
         <v>140</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M115" t="str">
+      <c r="N115" t="str">
         <f t="shared" si="5"/>
-        <v>{id:143, nama:'Merica/lada', satuan:'Gram', harga1:140, harga2:150, harga3:200},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:143, nama:'Merica/lada', satuan:'Gram', harga1:140, harga2:150, harga3:200,fixed:0},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>144</v>
       </c>
@@ -6032,20 +6380,23 @@
       <c r="F116">
         <v>35</v>
       </c>
-      <c r="I116">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="M116" t="str">
+      <c r="N116" t="str">
         <f t="shared" si="5"/>
-        <v>{id:144, nama:'Jahe', satuan:'Gram', harga1:25, harga2:30, harga3:35},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:144, nama:'Jahe', satuan:'Gram', harga1:25, harga2:30, harga3:35,fixed:0},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>145</v>
       </c>
@@ -6064,20 +6415,23 @@
       <c r="F117">
         <v>20</v>
       </c>
-      <c r="I117">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="M117" t="str">
+      <c r="N117" t="str">
         <f t="shared" si="5"/>
-        <v>{id:145, nama:'Kunyit', satuan:'Gram', harga1:10, harga2:15, harga3:20},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:145, nama:'Kunyit', satuan:'Gram', harga1:10, harga2:15, harga3:20,fixed:0},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>146</v>
       </c>
@@ -6096,34 +6450,37 @@
       <c r="F118">
         <v>50</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
         <v>5</v>
       </c>
-      <c r="H118" s="2">
+      <c r="I118" s="2">
         <v>70</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="M118" t="str">
+      <c r="N118" t="str">
         <f t="shared" si="5"/>
-        <v>{id:146, nama:'Asam', satuan:'Gram', harga1:35, harga2:40, harga3:50},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:146, nama:'Asam', satuan:'Gram', harga1:35, harga2:40, harga3:50,fixed:0},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>147</v>
       </c>
@@ -6142,34 +6499,37 @@
       <c r="F119">
         <v>65</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
         <v>25</v>
       </c>
-      <c r="H119" s="2">
+      <c r="I119" s="2">
         <v>150</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="M119" t="str">
+      <c r="N119" t="str">
         <f t="shared" si="5"/>
-        <v>{id:147, nama:'Terasi/petis', satuan:'Gram', harga1:60, harga2:60, harga3:65},</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:147, nama:'Terasi/petis', satuan:'Gram', harga1:60, harga2:60, harga3:65,fixed:0},</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>148</v>
       </c>
@@ -6188,34 +6548,37 @@
       <c r="F120">
         <v>5000</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120" s="2">
         <v>500</v>
       </c>
-      <c r="H120" s="2">
+      <c r="I120" s="2">
         <v>6000</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="M120" t="str">
+      <c r="N120" t="str">
         <f t="shared" si="5"/>
-        <v>{id:148, nama:'Kecap', satuan:'100ml', harga1:4000, harga2:4000, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:148, nama:'Kecap', satuan:'100ml', harga1:4000, harga2:4000, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>149</v>
       </c>
@@ -6234,34 +6597,37 @@
       <c r="F121">
         <v>45</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
         <v>30</v>
       </c>
-      <c r="H121" s="2">
+      <c r="I121" s="2">
         <v>90</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="M121" t="str">
+      <c r="N121" t="str">
         <f t="shared" si="5"/>
-        <v>{id:149, nama:'Penyedap masakan/vetsin', satuan:'Gram', harga1:35, harga2:40, harga3:45},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:149, nama:'Penyedap masakan/vetsin', satuan:'Gram', harga1:35, harga2:40, harga3:45,fixed:0},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>150</v>
       </c>
@@ -6280,34 +6646,37 @@
       <c r="F122">
         <v>5000</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122" s="2">
         <v>1000</v>
       </c>
-      <c r="H122" s="2">
-        <v>5000</v>
-      </c>
-      <c r="I122">
+      <c r="I122" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="6"/>
         <v>4500</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M122" t="str">
+      <c r="N122" t="str">
         <f t="shared" si="5"/>
-        <v>{id:150, nama:'Sambal jadi', satuan:'100ml', harga1:4500, harga2:4500, harga3:5000},</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:150, nama:'Sambal jadi', satuan:'100ml', harga1:4500, harga2:4500, harga3:5000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151</v>
       </c>
@@ -6326,34 +6695,37 @@
       <c r="F123">
         <v>7500</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="H123" s="2">
         <v>1500</v>
       </c>
-      <c r="H123" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I123">
+      <c r="I123" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <f t="shared" si="8"/>
         <v>3500</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <f t="shared" si="9"/>
         <v>2500</v>
       </c>
-      <c r="M123" t="str">
+      <c r="N123" t="str">
         <f t="shared" si="5"/>
-        <v>{id:151, nama:'Saus tomat', satuan:'100ml', harga1:5000, harga2:6000, harga3:7500},</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:151, nama:'Saus tomat', satuan:'100ml', harga1:5000, harga2:6000, harga3:7500,fixed:2},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>152</v>
       </c>
@@ -6372,34 +6744,37 @@
       <c r="F124">
         <v>75</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
         <v>20</v>
       </c>
-      <c r="H124" s="2">
+      <c r="I124" s="2">
         <v>400</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <f t="shared" si="9"/>
         <v>325</v>
       </c>
-      <c r="M124" t="str">
+      <c r="N124" t="str">
         <f t="shared" si="5"/>
-        <v>{id:152, nama:'Bumbu maskan jadi/kemasan, bumbu racikan', satuan:'Gram', harga1:45, harga2:50, harga3:75},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:152, nama:'Bumbu maskan jadi/kemasan, bumbu racikan', satuan:'Gram', harga1:45, harga2:50, harga3:75,fixed:0},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>153</v>
       </c>
@@ -6418,34 +6793,37 @@
       <c r="F125">
         <v>50</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
         <v>16</v>
       </c>
-      <c r="H125" s="2">
+      <c r="I125" s="2">
         <v>100</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="M125" t="str">
+      <c r="N125" t="str">
         <f t="shared" si="5"/>
-        <v>{id:153, nama:'Bumbu dapur lainnya (pala,  kencur, kapulaga, dsb.)', satuan:'Gram', harga1:50, harga2:50, harga3:50},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:153, nama:'Bumbu dapur lainnya (pala,  kencur, kapulaga, dsb.)', satuan:'Gram', harga1:50, harga2:50, harga3:50,fixed:0},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>156</v>
       </c>
@@ -6464,34 +6842,37 @@
       <c r="F126">
         <v>2000</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126" s="2">
         <v>1000</v>
       </c>
-      <c r="H126" s="2">
+      <c r="I126" s="2">
         <v>20000</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <f t="shared" si="7"/>
         <v>2000</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <f t="shared" si="9"/>
         <v>18000</v>
       </c>
-      <c r="M126" t="str">
+      <c r="N126" t="str">
         <f t="shared" si="5"/>
-        <v>{id:156, nama:'Kerupuk', satuan:'Ons', harga1:1500, harga2:1800, harga3:2000},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:156, nama:'Kerupuk', satuan:'Ons', harga1:1500, harga2:1800, harga3:2000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>157</v>
       </c>
@@ -6510,34 +6891,37 @@
       <c r="F127">
         <v>4000</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127">
+        <v>2</v>
+      </c>
+      <c r="H127" s="2">
         <v>2000</v>
       </c>
-      <c r="H127" s="2">
+      <c r="I127" s="2">
         <v>20000</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <f t="shared" si="9"/>
         <v>16000</v>
       </c>
-      <c r="M127" t="str">
+      <c r="N127" t="str">
         <f t="shared" si="5"/>
-        <v>{id:157, nama:'Bubur bayi kemasan', satuan:'Kotak kecil (150 gr)', harga1:2000, harga2:3000, harga3:4000},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:157, nama:'Bubur bayi kemasan', satuan:'Kotak kecil (150 gr)', harga1:2000, harga2:3000, harga3:4000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>160</v>
       </c>
@@ -6556,34 +6940,37 @@
       <c r="F128">
         <v>4000</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
         <v>500</v>
       </c>
-      <c r="H128" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I128">
+      <c r="I128" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="M128" t="str">
+      <c r="N128" t="str">
         <f t="shared" si="5"/>
-        <v>{id:160, nama:'Roti tawar', satuan:'Potong', harga1:1000, harga2:1500, harga3:4000},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:160, nama:'Roti tawar', satuan:'Potong', harga1:1000, harga2:1500, harga3:4000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>161</v>
       </c>
@@ -6602,34 +6989,37 @@
       <c r="F129">
         <v>4000</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
         <v>500</v>
       </c>
-      <c r="H129" s="2">
+      <c r="I129" s="2">
         <v>15000</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <f t="shared" si="9"/>
         <v>11000</v>
       </c>
-      <c r="M129" t="str">
+      <c r="N129" t="str">
         <f t="shared" si="5"/>
-        <v>{id:161, nama:'Roti manis, roti lainnya', satuan:'Potong', harga1:1000, harga2:1500, harga3:4000},</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:161, nama:'Roti manis, roti lainnya', satuan:'Potong', harga1:1000, harga2:1500, harga3:4000,fixed:0},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>162</v>
       </c>
@@ -6648,34 +7038,37 @@
       <c r="F130">
         <v>8000</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130" s="2">
         <v>1000</v>
       </c>
-      <c r="H130" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I130">
+      <c r="I130" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J130">
         <f t="shared" si="6"/>
         <v>8000</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <f t="shared" si="7"/>
         <v>8000</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <f t="shared" si="8"/>
         <v>7000</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <f t="shared" si="9"/>
         <v>2000</v>
       </c>
-      <c r="M130" t="str">
+      <c r="N130" t="str">
         <f t="shared" si="5"/>
-        <v>{id:162, nama:'Kue kering, biskuit, semprong', satuan:'Ons', harga1:8000, harga2:8000, harga3:8000},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{id:162, nama:'Kue kering, biskuit, semprong', satuan:'Ons', harga1:8000, harga2:8000, harga3:8000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>177</v>
       </c>
@@ -6694,34 +7087,37 @@
       <c r="F131">
         <v>10000</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" s="2">
         <v>500</v>
       </c>
-      <c r="H131" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I131">
+      <c r="I131" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J131">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <f t="shared" si="8"/>
         <v>9500</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M131" t="str">
-        <f t="shared" ref="M131:M132" si="10">CONCATENATE("{id:",A131,", nama:'",B131,"', satuan:'",C131,"', harga1:",D131,", harga2:",E131,", harga3:",F131,"},")</f>
-        <v>{id:177, nama:'Makanan ringan anak-anak, krupuk/kripik', satuan:'Ons', harga1:10000, harga2:10000, harga3:10000},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N132" si="10">CONCATENATE("{id:",A131,", nama:'",B131,"', satuan:'",C131,"', harga1:",D131,", harga2:",E131,", harga3:",F131,",fixed:",G131,"},")</f>
+        <v>{id:177, nama:'Makanan ringan anak-anak, krupuk/kripik', satuan:'Ons', harga1:10000, harga2:10000, harga3:10000,fixed:2},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>186</v>
       </c>
@@ -6740,35 +7136,38 @@
       <c r="F132">
         <v>6000</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" s="2">
         <v>1000</v>
       </c>
-      <c r="H132" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I132">
+      <c r="I132" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <f t="shared" si="8"/>
         <v>4000</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-      <c r="M132" t="str">
+      <c r="N132" t="str">
         <f t="shared" si="10"/>
-        <v>{id:186, nama:'Air teh kemasan, minuman bersoda/mengandung CO2', satuan:'250ml', harga1:5000, harga2:5000, harga3:6000},</v>
+        <v>{id:186, nama:'Air teh kemasan, minuman bersoda/mengandung CO2', satuan:'250ml', harga1:5000, harga2:5000, harga3:6000,fixed:2},</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:L132">
+  <conditionalFormatting sqref="L2:M132">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
